--- a/hieu777.xlsx
+++ b/hieu777.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6BBDE0-2CB4-4726-86B0-645706D4063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0522A-4D3A-435D-A164-C3C3A3BE4574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60195" yWindow="2595" windowWidth="20010" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61035" yWindow="3435" windowWidth="20010" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="162">
   <si>
     <t>tên</t>
   </si>
@@ -61,69 +61,12 @@
     <t>Võ Thị Diễm Sương</t>
   </si>
   <si>
-    <t>vaekhaeh6@gmail.com</t>
-  </si>
-  <si>
-    <t>Tạ Quang Huy</t>
-  </si>
-  <si>
-    <t>diemquyee.le53@gmail.com</t>
-  </si>
-  <si>
-    <t>Đỗ Anh Thù</t>
-  </si>
-  <si>
-    <t>hoaegxuae12@gmail.com</t>
-  </si>
-  <si>
-    <t>Huỳnh Phạm Chánh Nghĩa</t>
-  </si>
-  <si>
-    <t>thuyoaeh.vuoeg66@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Trần Xuân Vy</t>
-  </si>
-  <si>
-    <t>quaegtai.hoaeg@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Sanh</t>
-  </si>
-  <si>
-    <t>aetuoeg.do52@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Trung Nghĩa</t>
   </si>
   <si>
-    <t>dieuega_ly38@gmail.com</t>
-  </si>
-  <si>
     <t>Quách Văn Kiên</t>
   </si>
   <si>
-    <t>vietcuoeg_phueg@gmail.com</t>
-  </si>
-  <si>
-    <t>Trương Viết Huy Phong</t>
-  </si>
-  <si>
-    <t>haoehiee_bui@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Văn</t>
-  </si>
-  <si>
-    <t>chimai.phae81@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Giang Phượng Vy</t>
-  </si>
-  <si>
-    <t>chieuphoeg94@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Hồng Diệu</t>
   </si>
   <si>
@@ -494,6 +437,84 @@
   </si>
   <si>
     <t>doegsoe98@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngô Thị Nga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hoathai42@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>7Ac8U9fs4v</t>
+  </si>
+  <si>
+    <t>Trương Thảo Tiên</t>
+  </si>
+  <si>
+    <t>haohmy51@gmail.com</t>
+  </si>
+  <si>
+    <t>Trương Hồng Quang</t>
+  </si>
+  <si>
+    <t>ogocdiep.ly@gmail.com</t>
+  </si>
+  <si>
+    <t>Trương Đăng Huy</t>
+  </si>
+  <si>
+    <t>phuccuoog_vuoog47@gmail.com</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ngọc Trâm</t>
+  </si>
+  <si>
+    <t>leoga8@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàng Kim Thành</t>
+  </si>
+  <si>
+    <t>hoaogthu_phuog40@gmail.com</t>
+  </si>
+  <si>
+    <t>Vũ Viết Thái</t>
+  </si>
+  <si>
+    <t>baohoa.ogo@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Nhật Minh</t>
+  </si>
+  <si>
+    <t>khaohoam_ha43@gmail.com</t>
+  </si>
+  <si>
+    <t>Phùng Trung Đoàn</t>
+  </si>
+  <si>
+    <t>aohvu.duoog80@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Huyền Trâm</t>
+  </si>
+  <si>
+    <t>troogviet23@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Thị Bích Hiền</t>
+  </si>
+  <si>
+    <t>chieuduoog_mai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -832,7 +853,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4"/>
@@ -863,197 +884,197 @@
     </row>
     <row r="2" spans="1:5" ht="22.5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C2">
         <v>12345678</v>
       </c>
       <c r="D2" s="2">
-        <v>84155700405</v>
+        <v>84569267029</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>12345678</v>
       </c>
       <c r="D3" s="2">
-        <v>84429551039</v>
+        <v>84241844811</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>12345678</v>
       </c>
       <c r="D4" s="2">
-        <v>84817570693</v>
+        <v>84057878727</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>12345678</v>
       </c>
       <c r="D5" s="2">
-        <v>84646127177</v>
+        <v>84324250062</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="C6">
         <v>12345678</v>
       </c>
       <c r="D6" s="2">
-        <v>84219174388</v>
+        <v>84744838219</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>12345678</v>
       </c>
       <c r="D7" s="2">
-        <v>84674322492</v>
+        <v>84000887769</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>12345678</v>
       </c>
       <c r="D8" s="2">
-        <v>84082694301</v>
+        <v>84336762768</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>12345678</v>
       </c>
       <c r="D9" s="2">
-        <v>84732750198</v>
+        <v>84564048870</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>12345678</v>
       </c>
       <c r="D10" s="2">
-        <v>84247789039</v>
+        <v>84208296962</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="C11">
         <v>12345678</v>
       </c>
       <c r="D11" s="2">
-        <v>84090259790</v>
+        <v>84062738905</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22.5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>12345678</v>
       </c>
       <c r="D12" s="2">
-        <v>84082358377</v>
+        <v>84014519497</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>12345678</v>
@@ -1067,10 +1088,10 @@
     </row>
     <row r="14" spans="1:5" ht="22.5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>12345678</v>
@@ -1084,10 +1105,10 @@
     </row>
     <row r="15" spans="1:5" ht="22.5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>12345678</v>
@@ -1101,10 +1122,10 @@
     </row>
     <row r="16" spans="1:5" ht="22.5">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>12345678</v>
@@ -1118,10 +1139,10 @@
     </row>
     <row r="17" spans="1:5" ht="22.5">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>12345678</v>
@@ -1135,10 +1156,10 @@
     </row>
     <row r="18" spans="1:5" ht="22.5">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>12345678</v>
@@ -1152,10 +1173,10 @@
     </row>
     <row r="19" spans="1:5" ht="22.5">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>12345678</v>
@@ -1169,10 +1190,10 @@
     </row>
     <row r="20" spans="1:5" ht="22.5">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>12345678</v>
@@ -1186,10 +1207,10 @@
     </row>
     <row r="21" spans="1:5" ht="22.5">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>12345678</v>
@@ -1203,10 +1224,10 @@
     </row>
     <row r="22" spans="1:5" ht="22.5">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>12345678</v>
@@ -1220,10 +1241,10 @@
     </row>
     <row r="23" spans="1:5" ht="22.5">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>12345678</v>
@@ -1237,10 +1258,10 @@
     </row>
     <row r="24" spans="1:5" ht="22.5">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>12345678</v>
@@ -1254,10 +1275,10 @@
     </row>
     <row r="25" spans="1:5" ht="22.5">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>12345678</v>
@@ -1271,10 +1292,10 @@
     </row>
     <row r="26" spans="1:5" ht="22.5">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>12345678</v>
@@ -1288,10 +1309,10 @@
     </row>
     <row r="27" spans="1:5" ht="22.5">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>12345678</v>
@@ -1305,10 +1326,10 @@
     </row>
     <row r="28" spans="1:5" ht="22.5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>12345678</v>
@@ -1322,10 +1343,10 @@
     </row>
     <row r="29" spans="1:5" ht="22.5">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>12345678</v>
@@ -1339,10 +1360,10 @@
     </row>
     <row r="30" spans="1:5" ht="22.5">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>12345678</v>
@@ -1356,10 +1377,10 @@
     </row>
     <row r="31" spans="1:5" ht="22.5">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>12345678</v>
@@ -1373,10 +1394,10 @@
     </row>
     <row r="32" spans="1:5" ht="22.5">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>12345678</v>
@@ -1390,10 +1411,10 @@
     </row>
     <row r="33" spans="1:5" ht="22.5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>12345678</v>
@@ -1407,10 +1428,10 @@
     </row>
     <row r="34" spans="1:5" ht="22.5">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>12345678</v>
@@ -1424,10 +1445,10 @@
     </row>
     <row r="35" spans="1:5" ht="22.5">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>12345678</v>
@@ -1441,10 +1462,10 @@
     </row>
     <row r="36" spans="1:5" ht="22.5">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>12345678</v>
@@ -1458,10 +1479,10 @@
     </row>
     <row r="37" spans="1:5" ht="22.5">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>12345678</v>
@@ -1475,10 +1496,10 @@
     </row>
     <row r="38" spans="1:5" ht="22.5">
       <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C38">
         <v>12345678</v>
@@ -1492,10 +1513,10 @@
     </row>
     <row r="39" spans="1:5" ht="22.5">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>12345678</v>
@@ -1509,10 +1530,10 @@
     </row>
     <row r="40" spans="1:5" ht="22.5">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>12345678</v>
@@ -1529,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>12345678</v>
@@ -1546,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>12345678</v>
@@ -1560,10 +1581,10 @@
     </row>
     <row r="43" spans="1:5" ht="22.5">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>12345678</v>
@@ -1577,10 +1598,10 @@
     </row>
     <row r="44" spans="1:5" ht="22.5">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>12345678</v>
@@ -1594,10 +1615,10 @@
     </row>
     <row r="45" spans="1:5" ht="22.5">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>12345678</v>
@@ -1611,10 +1632,10 @@
     </row>
     <row r="46" spans="1:5" ht="22.5">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>12345678</v>
@@ -1628,10 +1649,10 @@
     </row>
     <row r="47" spans="1:5" ht="22.5">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>12345678</v>
@@ -1645,10 +1666,10 @@
     </row>
     <row r="48" spans="1:5" ht="22.5">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C48">
         <v>12345678</v>
@@ -1662,10 +1683,10 @@
     </row>
     <row r="49" spans="1:5" ht="22.5">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>12345678</v>
@@ -1679,10 +1700,10 @@
     </row>
     <row r="50" spans="1:5" ht="22.5">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>12345678</v>
@@ -1696,10 +1717,10 @@
     </row>
     <row r="51" spans="1:5" ht="22.5">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>12345678</v>
@@ -1713,10 +1734,10 @@
     </row>
     <row r="52" spans="1:5" ht="22.5">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <v>12345678</v>
@@ -1733,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <v>12345678</v>
@@ -1747,10 +1768,10 @@
     </row>
     <row r="54" spans="1:5" ht="22.5">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>12345678</v>
@@ -1764,10 +1785,10 @@
     </row>
     <row r="55" spans="1:5" ht="22.5">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>12345678</v>
@@ -1784,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>12345678</v>
@@ -1798,10 +1819,10 @@
     </row>
     <row r="57" spans="1:5" ht="22.5">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>12345678</v>
@@ -1815,10 +1836,10 @@
     </row>
     <row r="58" spans="1:5" ht="22.5">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C58">
         <v>12345678</v>
@@ -1832,10 +1853,10 @@
     </row>
     <row r="59" spans="1:5" ht="22.5">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>12345678</v>
@@ -1849,10 +1870,10 @@
     </row>
     <row r="60" spans="1:5" ht="22.5">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C60">
         <v>12345678</v>
@@ -1866,10 +1887,10 @@
     </row>
     <row r="61" spans="1:5" ht="22.5">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C61">
         <v>12345678</v>
@@ -1883,10 +1904,10 @@
     </row>
     <row r="62" spans="1:5" ht="22.5">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>12345678</v>
@@ -1903,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>12345678</v>
@@ -1920,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C64">
         <v>12345678</v>
@@ -1934,10 +1955,10 @@
     </row>
     <row r="65" spans="1:5" ht="22.5">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C65">
         <v>12345678</v>
@@ -1951,10 +1972,10 @@
     </row>
     <row r="66" spans="1:5" ht="22.5">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C66">
         <v>12345678</v>
@@ -1968,10 +1989,10 @@
     </row>
     <row r="67" spans="1:5" ht="22.5">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C67">
         <v>12345678</v>
@@ -1985,10 +2006,10 @@
     </row>
     <row r="68" spans="1:5" ht="22.5">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C68">
         <v>12345678</v>
@@ -2002,10 +2023,10 @@
     </row>
     <row r="69" spans="1:5" ht="22.5">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C69">
         <v>12345678</v>
@@ -2019,10 +2040,10 @@
     </row>
     <row r="70" spans="1:5" ht="22.5">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C70">
         <v>12345678</v>
@@ -2036,10 +2057,10 @@
     </row>
     <row r="71" spans="1:5" ht="22.5">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C71">
         <v>12345678</v>
@@ -2053,10 +2074,10 @@
     </row>
     <row r="72" spans="1:5" ht="22.5">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C72">
         <v>12345678</v>
@@ -2070,10 +2091,10 @@
     </row>
     <row r="73" spans="1:5" ht="22.5">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C73">
         <v>12345678</v>
@@ -2087,10 +2108,10 @@
     </row>
     <row r="74" spans="1:5" ht="22.5">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C74">
         <v>12345678</v>
@@ -2107,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C75">
         <v>12345678</v>
@@ -2121,10 +2142,10 @@
     </row>
     <row r="76" spans="1:5" ht="22.5">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C76">
         <v>12345678</v>
@@ -2138,10 +2159,10 @@
     </row>
     <row r="77" spans="1:5" ht="22.5">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C77">
         <v>12345678</v>
@@ -2155,10 +2176,10 @@
     </row>
     <row r="78" spans="1:5" ht="22.5">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C78">
         <v>12345678</v>
@@ -2172,10 +2193,10 @@
     </row>
     <row r="79" spans="1:5" ht="22.5">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C79">
         <v>12345678</v>
@@ -2189,10 +2210,10 @@
     </row>
     <row r="80" spans="1:5" ht="22.5">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C80">
         <v>12345678</v>
@@ -2206,10 +2227,10 @@
     </row>
     <row r="81" spans="1:5" ht="22.5">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C81">
         <v>12345678</v>
@@ -2223,10 +2244,10 @@
     </row>
     <row r="82" spans="1:5" ht="22.5">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C82">
         <v>12345678</v>
